--- a/output_report/tong_hop/cut_file_so_bo/32-cut_file.xlsx
+++ b/output_report/tong_hop/cut_file_so_bo/32-cut_file.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alize\output_report\tong_hop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourse_code_gr\output_report\tong_hop\cut_file_so_bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="4s" sheetId="1" r:id="rId1"/>
@@ -435,19 +435,7 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -496,6 +484,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6668,8 +6668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6695,519 +6695,519 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="25"/>
+      <c r="J1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="4" t="s">
+      <c r="Q1" s="25"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="4" t="s">
+      <c r="V1" s="23"/>
+      <c r="W1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="4" t="s">
+      <c r="X1" s="23"/>
+      <c r="Y1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="4" t="s">
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="4" t="s">
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="4" t="s">
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="4" t="s">
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="5"/>
-    </row>
-    <row r="2" spans="1:36" s="9" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="AJ1" s="23"/>
+    </row>
+    <row r="2" spans="1:36" s="5" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AE2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="14">
-        <v>18</v>
-      </c>
-      <c r="C3" s="15">
-        <v>2</v>
-      </c>
-      <c r="D3" s="14">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-      <c r="F3" s="14">
-        <v>19</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14">
-        <v>19</v>
-      </c>
-      <c r="I3" s="15">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
-        <v>19</v>
-      </c>
-      <c r="K3" s="15">
-        <v>1</v>
-      </c>
-      <c r="L3" s="14">
-        <v>19</v>
-      </c>
-      <c r="M3" s="15">
-        <v>1</v>
-      </c>
-      <c r="N3" s="14">
-        <v>20</v>
-      </c>
-      <c r="O3" s="15">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>19</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="10">
+        <v>19</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11">
         <v>0</v>
       </c>
-      <c r="P3" s="14">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="15">
-        <v>1</v>
-      </c>
-      <c r="T3" s="16" t="s">
+      <c r="P3" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="17">
-        <f>SUM(B3:B27)</f>
+      <c r="U3" s="13">
+        <f t="shared" ref="U3:AJ3" si="0">SUM(B3:B27)</f>
         <v>339</v>
       </c>
-      <c r="V3" s="18">
-        <f>SUM(C3:C27)</f>
+      <c r="V3" s="14">
+        <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="W3" s="17">
-        <f>SUM(D3:D27)</f>
-        <v>365</v>
-      </c>
-      <c r="X3" s="18">
-        <f>SUM(E3:E27)</f>
+      <c r="W3" s="13">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="X3" s="14">
+        <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="Y3" s="17">
-        <f>SUM(F3:F27)</f>
+      <c r="Y3" s="13">
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="Z3" s="18">
-        <f>SUM(G3:G27)</f>
+      <c r="Z3" s="14">
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="AA3" s="17">
-        <f>SUM(H3:H27)</f>
+      <c r="AA3" s="13">
+        <f t="shared" si="0"/>
         <v>383</v>
       </c>
-      <c r="AB3" s="18">
-        <f>SUM(I3:I27)</f>
+      <c r="AB3" s="14">
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="AC3" s="17">
-        <f>SUM(J3:J27)</f>
+      <c r="AC3" s="13">
+        <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="AD3" s="18">
-        <f>SUM(K3:K27)</f>
+      <c r="AD3" s="14">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="AE3" s="17">
-        <f>SUM(L3:L27)</f>
+      <c r="AE3" s="13">
+        <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="AF3" s="18">
-        <f>SUM(M3:M27)</f>
+      <c r="AF3" s="14">
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="AG3" s="17">
-        <f>SUM(N3:N27)</f>
+      <c r="AG3" s="13">
+        <f t="shared" si="0"/>
         <v>417</v>
       </c>
-      <c r="AH3" s="18">
-        <f>SUM(O3:O27)</f>
+      <c r="AH3" s="14">
+        <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AI3" s="17">
-        <f>SUM(P3:P27)</f>
+      <c r="AI3" s="13">
+        <f t="shared" si="0"/>
         <v>442</v>
       </c>
-      <c r="AJ3" s="18">
-        <f>SUM(Q3:Q27)</f>
+      <c r="AJ3" s="14">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15">
-        <v>3</v>
-      </c>
-      <c r="D4" s="14">
-        <v>18</v>
-      </c>
-      <c r="E4" s="15">
-        <v>2</v>
-      </c>
-      <c r="F4" s="14">
-        <v>17</v>
-      </c>
-      <c r="G4" s="15">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14">
+      <c r="B4" s="10">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>17</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10">
         <v>16</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>4</v>
       </c>
-      <c r="J4" s="14">
-        <v>17</v>
-      </c>
-      <c r="K4" s="15">
-        <v>3</v>
-      </c>
-      <c r="L4" s="14">
-        <v>18</v>
-      </c>
-      <c r="M4" s="15">
-        <v>2</v>
-      </c>
-      <c r="N4" s="14">
-        <v>18</v>
-      </c>
-      <c r="O4" s="15">
-        <v>2</v>
-      </c>
-      <c r="P4" s="14">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>1</v>
-      </c>
-      <c r="T4" s="19" t="s">
+      <c r="J4" s="10">
+        <v>17</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10">
+        <v>18</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="10">
+        <v>18</v>
+      </c>
+      <c r="O4" s="11">
+        <v>2</v>
+      </c>
+      <c r="P4" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="20">
-        <f>SUM(B28:B52)</f>
+      <c r="U4" s="16">
+        <f t="shared" ref="U4:AJ4" si="1">SUM(B28:B52)</f>
         <v>118</v>
       </c>
-      <c r="V4" s="21">
-        <f>SUM(C28:C52)</f>
+      <c r="V4" s="17">
+        <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="W4" s="20">
-        <f>SUM(D28:D52)</f>
+      <c r="W4" s="16">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="X4" s="21">
-        <f>SUM(E28:E52)</f>
+      <c r="X4" s="17">
+        <f t="shared" si="1"/>
         <v>389</v>
       </c>
-      <c r="Y4" s="20">
-        <f>SUM(F28:F52)</f>
+      <c r="Y4" s="16">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="Z4" s="21">
-        <f>SUM(G28:G52)</f>
+      <c r="Z4" s="17">
+        <f t="shared" si="1"/>
         <v>411</v>
       </c>
-      <c r="AA4" s="20">
-        <f>SUM(H28:H52)</f>
+      <c r="AA4" s="16">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="AB4" s="21">
-        <f>SUM(I28:I52)</f>
+      <c r="AB4" s="17">
+        <f t="shared" si="1"/>
         <v>403</v>
       </c>
-      <c r="AC4" s="20">
-        <f>SUM(J28:J52)</f>
+      <c r="AC4" s="16">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="AD4" s="21">
-        <f>SUM(K28:K52)</f>
+      <c r="AD4" s="17">
+        <f t="shared" si="1"/>
         <v>407</v>
       </c>
-      <c r="AE4" s="20">
-        <f>SUM(L28:L52)</f>
+      <c r="AE4" s="16">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="AF4" s="21">
-        <f>SUM(M28:M52)</f>
+      <c r="AF4" s="17">
+        <f t="shared" si="1"/>
         <v>412</v>
       </c>
-      <c r="AG4" s="20">
-        <f>SUM(N28:N52)</f>
+      <c r="AG4" s="16">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="AH4" s="21">
-        <f>SUM(O28:O52)</f>
+      <c r="AH4" s="17">
+        <f t="shared" si="1"/>
         <v>416</v>
       </c>
-      <c r="AI4" s="20">
-        <f>SUM(P28:P52)</f>
+      <c r="AI4" s="16">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="AJ4" s="21">
-        <f>SUM(Q28:Q52)</f>
+      <c r="AJ4" s="17">
+        <f t="shared" si="1"/>
         <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14">
-        <v>17</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="B5" s="10">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="14">
-        <v>18</v>
-      </c>
-      <c r="G5" s="15">
-        <v>2</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="F5" s="10">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
         <v>16</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>4</v>
       </c>
-      <c r="J5" s="14">
-        <v>17</v>
-      </c>
-      <c r="K5" s="15">
-        <v>3</v>
-      </c>
-      <c r="L5" s="14">
-        <v>19</v>
-      </c>
-      <c r="M5" s="15">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14">
-        <v>19</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1</v>
-      </c>
-      <c r="P5" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="J5" s="10">
+        <v>17</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10">
+        <v>19</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1</v>
+      </c>
+      <c r="N5" s="10">
+        <v>19</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>12</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>8</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>11</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>9</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>10</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>11</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>9</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="10">
         <v>12</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>8</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <v>13</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="11">
         <v>7</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="10">
         <v>14</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="11">
         <v>6</v>
       </c>
-      <c r="P6" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="15">
+      <c r="P6" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="11">
         <v>2</v>
       </c>
       <c r="U6">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="W6">
         <f>SUM(W3,X4)/10</f>
-        <v>75.400000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="Y6">
         <f>SUM(Y3,Z4)/10</f>
@@ -7244,2446 +7244,2452 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>9</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>15</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
-      <c r="F7" s="14">
-        <v>19</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="14">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14">
-        <v>18</v>
-      </c>
-      <c r="K7" s="15">
-        <v>2</v>
-      </c>
-      <c r="L7" s="14">
-        <v>18</v>
-      </c>
-      <c r="M7" s="15">
-        <v>2</v>
-      </c>
-      <c r="N7" s="14">
-        <v>19</v>
-      </c>
-      <c r="O7" s="15">
-        <v>1</v>
-      </c>
-      <c r="P7" s="14">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="F7" s="10">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10">
+        <v>18</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2</v>
+      </c>
+      <c r="L7" s="10">
+        <v>18</v>
+      </c>
+      <c r="M7" s="11">
+        <v>2</v>
+      </c>
+      <c r="N7" s="10">
+        <v>19</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-      <c r="F8" s="14">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="D8" s="10">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>17</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10">
         <v>16</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="11">
         <v>4</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="10">
         <v>15</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>5</v>
       </c>
-      <c r="L8" s="14">
-        <v>18</v>
-      </c>
-      <c r="M8" s="15">
-        <v>2</v>
-      </c>
-      <c r="N8" s="14">
-        <v>17</v>
-      </c>
-      <c r="O8" s="15">
-        <v>3</v>
-      </c>
-      <c r="P8" s="14">
+      <c r="L8" s="10">
+        <v>18</v>
+      </c>
+      <c r="M8" s="11">
+        <v>2</v>
+      </c>
+      <c r="N8" s="10">
+        <v>17</v>
+      </c>
+      <c r="O8" s="11">
+        <v>3</v>
+      </c>
+      <c r="P8" s="10">
         <v>16</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>11</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>9</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>13</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>7</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>11</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>9</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="10">
         <v>11</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>9</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10">
         <v>12</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="11">
         <v>8</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="10">
         <v>13</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="11">
         <v>7</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="10">
         <v>15</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="11">
         <v>5</v>
       </c>
-      <c r="Y9" s="22"/>
+      <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>11</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>8</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>12</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>7</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>13</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>12</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>8</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="10">
         <v>12</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>8</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10">
         <v>13</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="11">
         <v>7</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="10">
         <v>15</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="11">
         <v>5</v>
       </c>
-      <c r="P10" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="10">
         <v>12</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>14</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>6</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>14</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>6</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>16</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="11">
         <v>4</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="10">
         <v>16</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>4</v>
       </c>
-      <c r="L11" s="14">
-        <v>17</v>
-      </c>
-      <c r="M11" s="15">
-        <v>3</v>
-      </c>
-      <c r="N11" s="14">
-        <v>18</v>
-      </c>
-      <c r="O11" s="15">
-        <v>2</v>
-      </c>
-      <c r="P11" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="15">
+      <c r="L11" s="10">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
+      <c r="N11" s="10">
+        <v>18</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="10">
         <v>14</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>14</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>6</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>15</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="10">
         <v>16</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="11">
         <v>4</v>
       </c>
-      <c r="J12" s="14">
-        <v>17</v>
-      </c>
-      <c r="K12" s="15">
-        <v>3</v>
-      </c>
-      <c r="L12" s="14">
-        <v>18</v>
-      </c>
-      <c r="M12" s="15">
-        <v>2</v>
-      </c>
-      <c r="N12" s="14">
-        <v>19</v>
-      </c>
-      <c r="O12" s="15">
-        <v>1</v>
-      </c>
-      <c r="P12" s="14">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="15">
+      <c r="J12" s="10">
+        <v>17</v>
+      </c>
+      <c r="K12" s="11">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10">
+        <v>18</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="N12" s="10">
+        <v>19</v>
+      </c>
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="10">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>8</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>14</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>6</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>16</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>4</v>
       </c>
-      <c r="H13" s="14">
-        <v>17</v>
-      </c>
-      <c r="I13" s="15">
-        <v>3</v>
-      </c>
-      <c r="J13" s="14">
-        <v>17</v>
-      </c>
-      <c r="K13" s="15">
-        <v>3</v>
-      </c>
-      <c r="L13" s="14">
-        <v>17</v>
-      </c>
-      <c r="M13" s="15">
-        <v>3</v>
-      </c>
-      <c r="N13" s="14">
-        <v>17</v>
-      </c>
-      <c r="O13" s="15">
-        <v>3</v>
-      </c>
-      <c r="P13" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="H13" s="10">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3</v>
+      </c>
+      <c r="N13" s="10">
+        <v>17</v>
+      </c>
+      <c r="O13" s="11">
+        <v>3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14">
-        <v>17</v>
-      </c>
-      <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="14">
-        <v>18</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2</v>
-      </c>
-      <c r="F14" s="14">
-        <v>18</v>
-      </c>
-      <c r="G14" s="15">
-        <v>2</v>
-      </c>
-      <c r="H14" s="14">
-        <v>19</v>
-      </c>
-      <c r="I14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" s="14">
-        <v>17</v>
-      </c>
-      <c r="K14" s="15">
-        <v>3</v>
-      </c>
-      <c r="L14" s="14">
-        <v>17</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="14">
-        <v>17</v>
-      </c>
-      <c r="O14" s="15">
-        <v>3</v>
-      </c>
-      <c r="P14" s="14">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="15">
+      <c r="B14" s="10">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>19</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>17</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10">
+        <v>17</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10">
+        <v>17</v>
+      </c>
+      <c r="O14" s="11">
+        <v>3</v>
+      </c>
+      <c r="P14" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="14">
-        <v>19</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14">
-        <v>19</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <v>20</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="B15" s="10">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>19</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
-        <v>20</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="H15" s="10">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="14">
-        <v>20</v>
-      </c>
-      <c r="K15" s="15">
+      <c r="J15" s="10">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11">
         <v>0</v>
       </c>
-      <c r="L15" s="14">
-        <v>20</v>
-      </c>
-      <c r="M15" s="15">
+      <c r="L15" s="10">
+        <v>20</v>
+      </c>
+      <c r="M15" s="11">
         <v>0</v>
       </c>
-      <c r="N15" s="14">
-        <v>20</v>
-      </c>
-      <c r="O15" s="15">
+      <c r="N15" s="10">
+        <v>20</v>
+      </c>
+      <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="14">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="15">
+      <c r="P15" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="10">
         <v>14</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <v>16</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>4</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="10">
         <v>16</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>4</v>
       </c>
-      <c r="H16" s="14">
-        <v>17</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-      <c r="J16" s="14">
-        <v>17</v>
-      </c>
-      <c r="K16" s="15">
-        <v>3</v>
-      </c>
-      <c r="L16" s="14">
-        <v>17</v>
-      </c>
-      <c r="M16" s="15">
-        <v>3</v>
-      </c>
-      <c r="N16" s="14">
-        <v>17</v>
-      </c>
-      <c r="O16" s="15">
-        <v>3</v>
-      </c>
-      <c r="P16" s="14">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="15">
+      <c r="H16" s="10">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3</v>
+      </c>
+      <c r="J16" s="10">
+        <v>17</v>
+      </c>
+      <c r="K16" s="11">
+        <v>3</v>
+      </c>
+      <c r="L16" s="10">
+        <v>17</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3</v>
+      </c>
+      <c r="N16" s="10">
+        <v>17</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3</v>
+      </c>
+      <c r="P16" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10">
         <v>11</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>9</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <v>15</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="10">
         <v>12</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>8</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="10">
         <v>9</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="11">
         <v>11</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="10">
         <v>8</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>12</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="10">
         <v>10</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="11">
         <v>10</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="10">
         <v>12</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="11">
         <v>8</v>
       </c>
-      <c r="P17" s="14">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="15">
+      <c r="P17" s="10">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="14">
-        <v>18</v>
-      </c>
-      <c r="C18" s="15">
-        <v>2</v>
-      </c>
-      <c r="D18" s="14">
-        <v>17</v>
-      </c>
-      <c r="E18" s="15">
-        <v>3</v>
-      </c>
-      <c r="F18" s="14">
-        <v>18</v>
-      </c>
-      <c r="G18" s="15">
-        <v>2</v>
-      </c>
-      <c r="H18" s="14">
-        <v>17</v>
-      </c>
-      <c r="I18" s="15">
-        <v>3</v>
-      </c>
-      <c r="J18" s="14">
-        <v>18</v>
-      </c>
-      <c r="K18" s="15">
-        <v>2</v>
-      </c>
-      <c r="L18" s="14">
-        <v>18</v>
-      </c>
-      <c r="M18" s="15">
-        <v>2</v>
-      </c>
-      <c r="N18" s="14">
-        <v>18</v>
-      </c>
-      <c r="O18" s="15">
-        <v>2</v>
-      </c>
-      <c r="P18" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="15">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>18</v>
+      </c>
+      <c r="G18" s="11">
+        <v>2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10">
+        <v>18</v>
+      </c>
+      <c r="K18" s="11">
+        <v>2</v>
+      </c>
+      <c r="L18" s="10">
+        <v>18</v>
+      </c>
+      <c r="M18" s="11">
+        <v>2</v>
+      </c>
+      <c r="N18" s="10">
+        <v>18</v>
+      </c>
+      <c r="O18" s="11">
+        <v>2</v>
+      </c>
+      <c r="P18" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="14">
+      <c r="A19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
         <v>7</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>13</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="11">
         <v>7</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>15</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="11">
         <v>5</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="10">
         <v>16</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="11">
         <v>4</v>
       </c>
-      <c r="J19" s="14">
-        <v>17</v>
-      </c>
-      <c r="K19" s="15">
-        <v>3</v>
-      </c>
-      <c r="L19" s="14">
-        <v>17</v>
-      </c>
-      <c r="M19" s="15">
-        <v>3</v>
-      </c>
-      <c r="N19" s="14">
-        <v>17</v>
-      </c>
-      <c r="O19" s="15">
-        <v>3</v>
-      </c>
-      <c r="P19" s="14">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="15">
+      <c r="J19" s="10">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11">
+        <v>3</v>
+      </c>
+      <c r="L19" s="10">
+        <v>17</v>
+      </c>
+      <c r="M19" s="11">
+        <v>3</v>
+      </c>
+      <c r="N19" s="10">
+        <v>17</v>
+      </c>
+      <c r="O19" s="11">
+        <v>3</v>
+      </c>
+      <c r="P19" s="10">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="14">
+      <c r="A20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
         <v>15</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="11">
         <v>5</v>
       </c>
-      <c r="D20" s="14">
-        <v>19</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
-        <v>19</v>
-      </c>
-      <c r="G20" s="15">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14">
-        <v>18</v>
-      </c>
-      <c r="I20" s="15">
-        <v>2</v>
-      </c>
-      <c r="J20" s="14">
-        <v>19</v>
-      </c>
-      <c r="K20" s="15">
-        <v>1</v>
-      </c>
-      <c r="L20" s="14">
-        <v>19</v>
-      </c>
-      <c r="M20" s="15">
-        <v>1</v>
-      </c>
-      <c r="N20" s="14">
-        <v>19</v>
-      </c>
-      <c r="O20" s="15">
-        <v>1</v>
-      </c>
-      <c r="P20" s="14">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="15">
+      <c r="D20" s="10">
+        <v>19</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>19</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11">
+        <v>2</v>
+      </c>
+      <c r="J20" s="10">
+        <v>19</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
+        <v>19</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
+        <v>19</v>
+      </c>
+      <c r="O20" s="11">
+        <v>1</v>
+      </c>
+      <c r="P20" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14">
-        <v>17</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="D21" s="14">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="14">
+      <c r="B21" s="10">
+        <v>17</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10">
+        <v>17</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
         <v>15</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>5</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>15</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="11">
         <v>5</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="10">
         <v>16</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="11">
         <v>4</v>
       </c>
-      <c r="L21" s="14">
-        <v>18</v>
-      </c>
-      <c r="M21" s="15">
-        <v>2</v>
-      </c>
-      <c r="N21" s="14">
-        <v>18</v>
-      </c>
-      <c r="O21" s="15">
-        <v>2</v>
-      </c>
-      <c r="P21" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="15">
+      <c r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="11">
+        <v>2</v>
+      </c>
+      <c r="N21" s="10">
+        <v>18</v>
+      </c>
+      <c r="O21" s="11">
+        <v>2</v>
+      </c>
+      <c r="P21" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="14">
-        <v>17</v>
-      </c>
-      <c r="C22" s="15">
-        <v>3</v>
-      </c>
-      <c r="D22" s="14">
-        <v>18</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2</v>
-      </c>
-      <c r="F22" s="14">
-        <v>18</v>
-      </c>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" s="14">
-        <v>18</v>
-      </c>
-      <c r="I22" s="15">
-        <v>2</v>
-      </c>
-      <c r="J22" s="14">
-        <v>18</v>
-      </c>
-      <c r="K22" s="15">
-        <v>2</v>
-      </c>
-      <c r="L22" s="14">
-        <v>19</v>
-      </c>
-      <c r="M22" s="15">
-        <v>1</v>
-      </c>
-      <c r="N22" s="14">
-        <v>19</v>
-      </c>
-      <c r="O22" s="15">
-        <v>1</v>
-      </c>
-      <c r="P22" s="14">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="15">
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11">
+        <v>2</v>
+      </c>
+      <c r="F22" s="10">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2</v>
+      </c>
+      <c r="J22" s="10">
+        <v>18</v>
+      </c>
+      <c r="K22" s="11">
+        <v>2</v>
+      </c>
+      <c r="L22" s="10">
+        <v>19</v>
+      </c>
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <v>19</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="10">
         <v>10</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="10">
         <v>11</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>9</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="10">
         <v>11</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="11">
         <v>9</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="10">
         <v>11</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="11">
         <v>9</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="10">
         <v>13</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="11">
         <v>7</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="10">
         <v>13</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="11">
         <v>7</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="10">
         <v>14</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="11">
         <v>6</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="10">
         <v>16</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="10">
         <v>13</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>7</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="10">
         <v>14</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="11">
         <v>6</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="10">
         <v>14</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="11">
         <v>6</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="10">
         <v>16</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="11">
         <v>4</v>
       </c>
-      <c r="J24" s="14">
-        <v>17</v>
-      </c>
-      <c r="K24" s="15">
-        <v>3</v>
-      </c>
-      <c r="L24" s="14">
-        <v>18</v>
-      </c>
-      <c r="M24" s="15">
-        <v>2</v>
-      </c>
-      <c r="N24" s="14">
+      <c r="J24" s="10">
+        <v>17</v>
+      </c>
+      <c r="K24" s="11">
+        <v>3</v>
+      </c>
+      <c r="L24" s="10">
+        <v>18</v>
+      </c>
+      <c r="M24" s="11">
+        <v>2</v>
+      </c>
+      <c r="N24" s="10">
         <v>16</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="11">
         <v>4</v>
       </c>
-      <c r="P24" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="15">
+      <c r="P24" s="10">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="10">
         <v>16</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="10">
         <v>14</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="11">
         <v>6</v>
       </c>
-      <c r="F25" s="14">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15">
-        <v>2</v>
-      </c>
-      <c r="H25" s="14">
-        <v>20</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="F25" s="10">
+        <v>18</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2</v>
+      </c>
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="14">
-        <v>20</v>
-      </c>
-      <c r="K25" s="15">
+      <c r="J25" s="10">
+        <v>20</v>
+      </c>
+      <c r="K25" s="11">
         <v>0</v>
       </c>
-      <c r="L25" s="14">
-        <v>20</v>
-      </c>
-      <c r="M25" s="15">
+      <c r="L25" s="10">
+        <v>20</v>
+      </c>
+      <c r="M25" s="11">
         <v>0</v>
       </c>
-      <c r="N25" s="14">
-        <v>20</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="N25" s="10">
+        <v>20</v>
+      </c>
+      <c r="O25" s="11">
         <v>0</v>
       </c>
-      <c r="P25" s="14">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="15">
+      <c r="P25" s="10">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="10">
         <v>11</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="11">
         <v>9</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="10">
         <v>8</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="11">
         <v>12</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <v>9</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="11">
         <v>11</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="10">
         <v>9</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="11">
         <v>11</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="10">
         <v>11</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="11">
         <v>9</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="10">
         <v>10</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="11">
         <v>10</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="10">
         <v>11</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="11">
         <v>9</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="10">
         <v>13</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="10">
         <v>11</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="11">
         <v>9</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="10">
         <v>10</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="11">
         <v>10</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="10">
         <v>10</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="11">
         <v>10</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="10">
         <v>10</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="11">
         <v>10</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="10">
         <v>10</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="11">
         <v>10</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="10">
         <v>10</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="11">
         <v>10</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="10">
         <v>10</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="11">
         <v>10</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="10">
         <v>9</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="11">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="10">
         <v>6</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="11">
         <v>14</v>
       </c>
-      <c r="D28" s="14">
-        <v>2</v>
-      </c>
-      <c r="E28" s="15">
-        <v>18</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="15">
-        <v>19</v>
-      </c>
-      <c r="H28" s="14">
-        <v>2</v>
-      </c>
-      <c r="I28" s="15">
-        <v>18</v>
-      </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
-      <c r="K28" s="15">
-        <v>19</v>
-      </c>
-      <c r="L28" s="14">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15">
-        <v>19</v>
-      </c>
-      <c r="N28" s="14">
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="11">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>19</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2</v>
+      </c>
+      <c r="I28" s="11">
+        <v>18</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11">
+        <v>19</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11">
+        <v>19</v>
+      </c>
+      <c r="N28" s="10">
         <v>0</v>
       </c>
-      <c r="O28" s="15">
-        <v>20</v>
-      </c>
-      <c r="P28" s="14">
+      <c r="O28" s="11">
+        <v>20</v>
+      </c>
+      <c r="P28" s="10">
         <v>0</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="10">
         <v>7</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="11">
         <v>13</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="10">
         <v>5</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="11">
         <v>15</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="10">
         <v>4</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="11">
         <v>16</v>
       </c>
-      <c r="H29" s="14">
-        <v>3</v>
-      </c>
-      <c r="I29" s="15">
-        <v>17</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="H29" s="10">
+        <v>3</v>
+      </c>
+      <c r="I29" s="11">
+        <v>17</v>
+      </c>
+      <c r="J29" s="10">
         <v>4</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="11">
         <v>16</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="10">
         <v>4</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="11">
         <v>16</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="10">
         <v>4</v>
       </c>
-      <c r="O29" s="15">
+      <c r="O29" s="11">
         <v>16</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="10">
         <v>5</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="14">
-        <v>3</v>
-      </c>
-      <c r="C30" s="15">
-        <v>17</v>
-      </c>
-      <c r="D30" s="14">
-        <v>2</v>
-      </c>
-      <c r="E30" s="15">
-        <v>18</v>
-      </c>
-      <c r="F30" s="14">
+      <c r="B30" s="10">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11">
+        <v>17</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>18</v>
+      </c>
+      <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="15">
-        <v>20</v>
-      </c>
-      <c r="H30" s="14">
-        <v>2</v>
-      </c>
-      <c r="I30" s="15">
-        <v>18</v>
-      </c>
-      <c r="J30" s="14">
-        <v>2</v>
-      </c>
-      <c r="K30" s="15">
-        <v>18</v>
-      </c>
-      <c r="L30" s="14">
-        <v>2</v>
-      </c>
-      <c r="M30" s="15">
-        <v>18</v>
-      </c>
-      <c r="N30" s="14">
+      <c r="G30" s="11">
+        <v>20</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>18</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>18</v>
+      </c>
+      <c r="L30" s="10">
+        <v>2</v>
+      </c>
+      <c r="M30" s="11">
+        <v>18</v>
+      </c>
+      <c r="N30" s="10">
         <v>0</v>
       </c>
-      <c r="O30" s="15">
-        <v>20</v>
-      </c>
-      <c r="P30" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q30" s="15">
+      <c r="O30" s="11">
+        <v>20</v>
+      </c>
+      <c r="P30" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="14">
-        <v>2</v>
-      </c>
-      <c r="C31" s="15">
-        <v>18</v>
-      </c>
-      <c r="D31" s="14">
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="11">
         <v>16</v>
       </c>
-      <c r="F31" s="14">
-        <v>2</v>
-      </c>
-      <c r="G31" s="15">
-        <v>18</v>
-      </c>
-      <c r="H31" s="14">
-        <v>2</v>
-      </c>
-      <c r="I31" s="15">
-        <v>18</v>
-      </c>
-      <c r="J31" s="14">
-        <v>1</v>
-      </c>
-      <c r="K31" s="15">
-        <v>19</v>
-      </c>
-      <c r="L31" s="14">
+      <c r="F31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="11">
+        <v>18</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2</v>
+      </c>
+      <c r="I31" s="11">
+        <v>18</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>19</v>
+      </c>
+      <c r="L31" s="10">
         <v>0</v>
       </c>
-      <c r="M31" s="15">
-        <v>20</v>
-      </c>
-      <c r="N31" s="14">
+      <c r="M31" s="11">
+        <v>20</v>
+      </c>
+      <c r="N31" s="10">
         <v>0</v>
       </c>
-      <c r="O31" s="15">
-        <v>20</v>
-      </c>
-      <c r="P31" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="15">
+      <c r="O31" s="11">
+        <v>20</v>
+      </c>
+      <c r="P31" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="10">
         <v>6</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="11">
         <v>14</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="10">
         <v>9</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="11">
         <v>11</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="10">
         <v>9</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="11">
         <v>11</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="10">
         <v>6</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="11">
         <v>14</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="10">
         <v>5</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="11">
         <v>15</v>
       </c>
-      <c r="L32" s="14">
-        <v>3</v>
-      </c>
-      <c r="M32" s="15">
-        <v>17</v>
-      </c>
-      <c r="N32" s="14">
-        <v>3</v>
-      </c>
-      <c r="O32" s="15">
-        <v>17</v>
-      </c>
-      <c r="P32" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="15">
+      <c r="L32" s="10">
+        <v>3</v>
+      </c>
+      <c r="M32" s="11">
+        <v>17</v>
+      </c>
+      <c r="N32" s="10">
+        <v>3</v>
+      </c>
+      <c r="O32" s="11">
+        <v>17</v>
+      </c>
+      <c r="P32" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q32" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="10">
         <v>9</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="11">
         <v>11</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="10">
         <v>7</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="11">
         <v>13</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="10">
         <v>5</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="11">
         <v>15</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="10">
         <v>5</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="11">
         <v>15</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="10">
         <v>7</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="11">
         <v>13</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="10">
         <v>7</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="11">
         <v>13</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="10">
         <v>6</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="11">
         <v>14</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="10">
         <v>6</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="11">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="10">
         <v>7</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="11">
         <v>13</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="10">
         <v>11</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="11">
         <v>9</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="10">
         <v>4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="11">
         <v>16</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="10">
         <v>4</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="11">
         <v>16</v>
       </c>
-      <c r="J34" s="14">
-        <v>3</v>
-      </c>
-      <c r="K34" s="15">
-        <v>17</v>
-      </c>
-      <c r="L34" s="14">
-        <v>2</v>
-      </c>
-      <c r="M34" s="15">
-        <v>18</v>
-      </c>
-      <c r="N34" s="14">
-        <v>2</v>
-      </c>
-      <c r="O34" s="15">
-        <v>18</v>
-      </c>
-      <c r="P34" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="15">
+      <c r="J34" s="10">
+        <v>3</v>
+      </c>
+      <c r="K34" s="11">
+        <v>17</v>
+      </c>
+      <c r="L34" s="10">
+        <v>2</v>
+      </c>
+      <c r="M34" s="11">
+        <v>18</v>
+      </c>
+      <c r="N34" s="10">
+        <v>2</v>
+      </c>
+      <c r="O34" s="11">
+        <v>18</v>
+      </c>
+      <c r="P34" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="14">
-        <v>3</v>
-      </c>
-      <c r="C35" s="15">
-        <v>17</v>
-      </c>
-      <c r="D35" s="14">
-        <v>2</v>
-      </c>
-      <c r="E35" s="15">
-        <v>18</v>
-      </c>
-      <c r="F35" s="14">
-        <v>1</v>
-      </c>
-      <c r="G35" s="15">
-        <v>19</v>
-      </c>
-      <c r="H35" s="14">
-        <v>1</v>
-      </c>
-      <c r="I35" s="15">
-        <v>19</v>
-      </c>
-      <c r="J35" s="14">
-        <v>1</v>
-      </c>
-      <c r="K35" s="15">
-        <v>19</v>
-      </c>
-      <c r="L35" s="14">
-        <v>1</v>
-      </c>
-      <c r="M35" s="15">
-        <v>19</v>
-      </c>
-      <c r="N35" s="14">
-        <v>1</v>
-      </c>
-      <c r="O35" s="15">
-        <v>19</v>
-      </c>
-      <c r="P35" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="15">
+      <c r="B35" s="10">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="11">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
+        <v>19</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>19</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="11">
+        <v>19</v>
+      </c>
+      <c r="L35" s="10">
+        <v>1</v>
+      </c>
+      <c r="M35" s="11">
+        <v>19</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11">
+        <v>19</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="10">
         <v>5</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="11">
         <v>15</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="10">
         <v>5</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="11">
         <v>15</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="10">
         <v>5</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="11">
         <v>15</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="10">
         <v>6</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="11">
         <v>14</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="10">
         <v>6</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="11">
         <v>14</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10">
         <v>6</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="11">
         <v>14</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="10">
         <v>7</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="11">
         <v>13</v>
       </c>
-      <c r="P36" s="14">
+      <c r="P36" s="10">
         <v>4</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="14">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15">
-        <v>17</v>
-      </c>
-      <c r="D37" s="14">
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="C37" s="11">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10">
         <v>4</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="11">
         <v>16</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="10">
         <v>4</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="11">
         <v>16</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="10">
         <v>5</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="11">
         <v>15</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="10">
         <v>7</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="11">
         <v>13</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="10">
         <v>7</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="11">
         <v>13</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="10">
         <v>6</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="11">
         <v>14</v>
       </c>
-      <c r="P37" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q37" s="15">
+      <c r="P37" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="14">
-        <v>2</v>
-      </c>
-      <c r="C38" s="15">
-        <v>18</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2</v>
-      </c>
-      <c r="E38" s="15">
-        <v>18</v>
-      </c>
-      <c r="F38" s="14">
-        <v>3</v>
-      </c>
-      <c r="G38" s="15">
-        <v>17</v>
-      </c>
-      <c r="H38" s="14">
-        <v>3</v>
-      </c>
-      <c r="I38" s="15">
-        <v>17</v>
-      </c>
-      <c r="J38" s="14">
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>18</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3</v>
+      </c>
+      <c r="G38" s="11">
+        <v>17</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3</v>
+      </c>
+      <c r="I38" s="11">
+        <v>17</v>
+      </c>
+      <c r="J38" s="10">
         <v>0</v>
       </c>
-      <c r="K38" s="15">
-        <v>20</v>
-      </c>
-      <c r="L38" s="14">
+      <c r="K38" s="11">
+        <v>20</v>
+      </c>
+      <c r="L38" s="10">
         <v>0</v>
       </c>
-      <c r="M38" s="15">
-        <v>20</v>
-      </c>
-      <c r="N38" s="14">
-        <v>1</v>
-      </c>
-      <c r="O38" s="15">
-        <v>19</v>
-      </c>
-      <c r="P38" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="15">
+      <c r="M38" s="11">
+        <v>20</v>
+      </c>
+      <c r="N38" s="10">
+        <v>1</v>
+      </c>
+      <c r="O38" s="11">
+        <v>19</v>
+      </c>
+      <c r="P38" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="10">
         <v>5</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="11">
         <v>15</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="10">
         <v>4</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="11">
         <v>16</v>
       </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15">
-        <v>19</v>
-      </c>
-      <c r="H39" s="14">
-        <v>3</v>
-      </c>
-      <c r="I39" s="15">
-        <v>17</v>
-      </c>
-      <c r="J39" s="14">
-        <v>2</v>
-      </c>
-      <c r="K39" s="15">
-        <v>18</v>
-      </c>
-      <c r="L39" s="14">
-        <v>1</v>
-      </c>
-      <c r="M39" s="15">
-        <v>19</v>
-      </c>
-      <c r="N39" s="14">
-        <v>2</v>
-      </c>
-      <c r="O39" s="15">
-        <v>18</v>
-      </c>
-      <c r="P39" s="14">
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>19</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3</v>
+      </c>
+      <c r="I39" s="11">
+        <v>17</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2</v>
+      </c>
+      <c r="K39" s="11">
+        <v>18</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11">
+        <v>19</v>
+      </c>
+      <c r="N39" s="10">
+        <v>2</v>
+      </c>
+      <c r="O39" s="11">
+        <v>18</v>
+      </c>
+      <c r="P39" s="10">
         <v>4</v>
       </c>
-      <c r="Q39" s="15">
+      <c r="Q39" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="10">
         <v>8</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="11">
         <v>12</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="10">
         <v>7</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="11">
         <v>13</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="10">
         <v>9</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="11">
         <v>11</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="10">
         <v>9</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="11">
         <v>11</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="10">
         <v>7</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="11">
         <v>13</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="10">
         <v>9</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="11">
         <v>11</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="10">
         <v>9</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O40" s="11">
         <v>11</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="10">
         <v>4</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="14">
-        <v>3</v>
-      </c>
-      <c r="C41" s="15">
-        <v>17</v>
-      </c>
-      <c r="D41" s="14">
-        <v>3</v>
-      </c>
-      <c r="E41" s="15">
-        <v>17</v>
-      </c>
-      <c r="F41" s="14">
-        <v>2</v>
-      </c>
-      <c r="G41" s="15">
-        <v>18</v>
-      </c>
-      <c r="H41" s="14">
-        <v>2</v>
-      </c>
-      <c r="I41" s="15">
-        <v>18</v>
-      </c>
-      <c r="J41" s="14">
-        <v>2</v>
-      </c>
-      <c r="K41" s="15">
-        <v>18</v>
-      </c>
-      <c r="L41" s="14">
-        <v>2</v>
-      </c>
-      <c r="M41" s="15">
-        <v>18</v>
-      </c>
-      <c r="N41" s="14">
-        <v>2</v>
-      </c>
-      <c r="O41" s="15">
-        <v>18</v>
-      </c>
-      <c r="P41" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="15">
+      <c r="B41" s="10">
+        <v>3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>17</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="11">
+        <v>17</v>
+      </c>
+      <c r="F41" s="10">
+        <v>2</v>
+      </c>
+      <c r="G41" s="11">
+        <v>18</v>
+      </c>
+      <c r="H41" s="10">
+        <v>2</v>
+      </c>
+      <c r="I41" s="11">
+        <v>18</v>
+      </c>
+      <c r="J41" s="10">
+        <v>2</v>
+      </c>
+      <c r="K41" s="11">
+        <v>18</v>
+      </c>
+      <c r="L41" s="10">
+        <v>2</v>
+      </c>
+      <c r="M41" s="11">
+        <v>18</v>
+      </c>
+      <c r="N41" s="10">
+        <v>2</v>
+      </c>
+      <c r="O41" s="11">
+        <v>18</v>
+      </c>
+      <c r="P41" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="10">
         <v>11</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="11">
         <v>9</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="10">
         <v>10</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="11">
         <v>10</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="10">
         <v>9</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="11">
         <v>11</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="10">
         <v>11</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="11">
         <v>9</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="10">
         <v>12</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="11">
         <v>8</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="10">
         <v>10</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="11">
         <v>10</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="10">
         <v>10</v>
       </c>
-      <c r="O42" s="15">
+      <c r="O42" s="11">
         <v>10</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="10">
         <v>10</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="10">
         <v>5</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="11">
         <v>15</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="10">
         <v>4</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="11">
         <v>16</v>
       </c>
-      <c r="F43" s="14">
-        <v>2</v>
-      </c>
-      <c r="G43" s="15">
-        <v>18</v>
-      </c>
-      <c r="H43" s="14">
-        <v>2</v>
-      </c>
-      <c r="I43" s="15">
-        <v>18</v>
-      </c>
-      <c r="J43" s="14">
-        <v>2</v>
-      </c>
-      <c r="K43" s="15">
-        <v>18</v>
-      </c>
-      <c r="L43" s="14">
-        <v>2</v>
-      </c>
-      <c r="M43" s="15">
-        <v>18</v>
-      </c>
-      <c r="N43" s="14">
-        <v>2</v>
-      </c>
-      <c r="O43" s="15">
-        <v>18</v>
-      </c>
-      <c r="P43" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="15">
+      <c r="F43" s="10">
+        <v>2</v>
+      </c>
+      <c r="G43" s="11">
+        <v>18</v>
+      </c>
+      <c r="H43" s="10">
+        <v>2</v>
+      </c>
+      <c r="I43" s="11">
+        <v>18</v>
+      </c>
+      <c r="J43" s="10">
+        <v>2</v>
+      </c>
+      <c r="K43" s="11">
+        <v>18</v>
+      </c>
+      <c r="L43" s="10">
+        <v>2</v>
+      </c>
+      <c r="M43" s="11">
+        <v>18</v>
+      </c>
+      <c r="N43" s="10">
+        <v>2</v>
+      </c>
+      <c r="O43" s="11">
+        <v>18</v>
+      </c>
+      <c r="P43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="11">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="14">
-        <v>2</v>
-      </c>
-      <c r="C44" s="15">
-        <v>18</v>
-      </c>
-      <c r="D44" s="14">
+      <c r="B44" s="10">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10">
         <v>0</v>
       </c>
-      <c r="E44" s="15">
-        <v>20</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E44" s="11">
+        <v>20</v>
+      </c>
+      <c r="F44" s="10">
         <v>0</v>
       </c>
-      <c r="G44" s="15">
-        <v>20</v>
-      </c>
-      <c r="H44" s="14">
+      <c r="G44" s="11">
+        <v>20</v>
+      </c>
+      <c r="H44" s="10">
         <v>0</v>
       </c>
-      <c r="I44" s="15">
-        <v>20</v>
-      </c>
-      <c r="J44" s="14">
-        <v>1</v>
-      </c>
-      <c r="K44" s="15">
-        <v>19</v>
-      </c>
-      <c r="L44" s="14">
+      <c r="I44" s="11">
+        <v>20</v>
+      </c>
+      <c r="J44" s="10">
+        <v>1</v>
+      </c>
+      <c r="K44" s="11">
+        <v>19</v>
+      </c>
+      <c r="L44" s="10">
         <v>0</v>
       </c>
-      <c r="M44" s="15">
-        <v>20</v>
-      </c>
-      <c r="N44" s="14">
+      <c r="M44" s="11">
+        <v>20</v>
+      </c>
+      <c r="N44" s="10">
         <v>0</v>
       </c>
-      <c r="O44" s="15">
-        <v>20</v>
-      </c>
-      <c r="P44" s="14">
+      <c r="O44" s="11">
+        <v>20</v>
+      </c>
+      <c r="P44" s="10">
         <v>0</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="14">
-        <v>3</v>
-      </c>
-      <c r="C45" s="15">
-        <v>17</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11">
+        <v>17</v>
+      </c>
+      <c r="D45" s="10">
         <v>11</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="11">
         <v>9</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="10">
         <v>9</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="11">
         <v>11</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="10">
         <v>9</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="11">
         <v>11</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="10">
         <v>11</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="11">
         <v>9</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="10">
         <v>10</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="11">
         <v>10</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="10">
         <v>8</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O45" s="11">
         <v>12</v>
       </c>
-      <c r="P45" s="14">
+      <c r="P45" s="10">
         <v>4</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="14">
-        <v>2</v>
-      </c>
-      <c r="C46" s="15">
-        <v>18</v>
-      </c>
-      <c r="D46" s="14">
-        <v>3</v>
-      </c>
-      <c r="E46" s="15">
-        <v>17</v>
-      </c>
-      <c r="F46" s="14">
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="11">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3</v>
+      </c>
+      <c r="E46" s="11">
+        <v>17</v>
+      </c>
+      <c r="F46" s="10">
         <v>5</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="11">
         <v>15</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="10">
         <v>4</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="11">
         <v>16</v>
       </c>
-      <c r="J46" s="14">
-        <v>3</v>
-      </c>
-      <c r="K46" s="15">
-        <v>17</v>
-      </c>
-      <c r="L46" s="14">
+      <c r="J46" s="10">
+        <v>3</v>
+      </c>
+      <c r="K46" s="11">
+        <v>17</v>
+      </c>
+      <c r="L46" s="10">
         <v>4</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="11">
         <v>16</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="10">
         <v>5</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O46" s="11">
         <v>15</v>
       </c>
-      <c r="P46" s="14">
+      <c r="P46" s="10">
         <v>4</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q46" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="10">
         <v>8</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="11">
         <v>12</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="10">
         <v>6</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="11">
         <v>14</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="10">
         <v>6</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="11">
         <v>14</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="10">
         <v>6</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="11">
         <v>14</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="10">
         <v>7</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="11">
         <v>13</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="10">
         <v>7</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="11">
         <v>13</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="10">
         <v>6</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O47" s="11">
         <v>14</v>
       </c>
-      <c r="P47" s="14">
+      <c r="P47" s="10">
         <v>5</v>
       </c>
-      <c r="Q47" s="15">
+      <c r="Q47" s="11">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="10">
         <v>6</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="11">
         <v>14</v>
       </c>
-      <c r="D48" s="14">
-        <v>2</v>
-      </c>
-      <c r="E48" s="15">
-        <v>18</v>
-      </c>
-      <c r="F48" s="14">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15">
-        <v>19</v>
-      </c>
-      <c r="H48" s="14">
-        <v>1</v>
-      </c>
-      <c r="I48" s="15">
-        <v>19</v>
-      </c>
-      <c r="J48" s="14">
-        <v>1</v>
-      </c>
-      <c r="K48" s="15">
-        <v>19</v>
-      </c>
-      <c r="L48" s="14">
-        <v>1</v>
-      </c>
-      <c r="M48" s="15">
-        <v>19</v>
-      </c>
-      <c r="N48" s="14">
-        <v>1</v>
-      </c>
-      <c r="O48" s="15">
-        <v>19</v>
-      </c>
-      <c r="P48" s="14">
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11">
+        <v>18</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="11">
+        <v>19</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="11">
+        <v>19</v>
+      </c>
+      <c r="J48" s="10">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11">
+        <v>19</v>
+      </c>
+      <c r="L48" s="10">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>19</v>
+      </c>
+      <c r="N48" s="10">
+        <v>1</v>
+      </c>
+      <c r="O48" s="11">
+        <v>19</v>
+      </c>
+      <c r="P48" s="10">
         <v>0</v>
       </c>
-      <c r="Q48" s="15">
+      <c r="Q48" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="14">
-        <v>2</v>
-      </c>
-      <c r="C49" s="15">
-        <v>18</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="15">
-        <v>19</v>
-      </c>
-      <c r="F49" s="14">
-        <v>1</v>
-      </c>
-      <c r="G49" s="15">
-        <v>19</v>
-      </c>
-      <c r="H49" s="14">
-        <v>1</v>
-      </c>
-      <c r="I49" s="15">
-        <v>19</v>
-      </c>
-      <c r="J49" s="14">
-        <v>2</v>
-      </c>
-      <c r="K49" s="15">
-        <v>18</v>
-      </c>
-      <c r="L49" s="14">
-        <v>2</v>
-      </c>
-      <c r="M49" s="15">
-        <v>18</v>
-      </c>
-      <c r="N49" s="14">
-        <v>3</v>
-      </c>
-      <c r="O49" s="15">
-        <v>17</v>
-      </c>
-      <c r="P49" s="14">
+      <c r="B49" s="10">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11">
+        <v>18</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>19</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="11">
+        <v>19</v>
+      </c>
+      <c r="H49" s="10">
+        <v>1</v>
+      </c>
+      <c r="I49" s="11">
+        <v>19</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2</v>
+      </c>
+      <c r="K49" s="11">
+        <v>18</v>
+      </c>
+      <c r="L49" s="10">
+        <v>2</v>
+      </c>
+      <c r="M49" s="11">
+        <v>18</v>
+      </c>
+      <c r="N49" s="10">
+        <v>3</v>
+      </c>
+      <c r="O49" s="11">
+        <v>17</v>
+      </c>
+      <c r="P49" s="10">
         <v>0</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="11">
         <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="10">
         <v>4</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="11">
         <v>16</v>
       </c>
-      <c r="D50" s="14">
-        <v>3</v>
-      </c>
-      <c r="E50" s="15">
-        <v>17</v>
-      </c>
-      <c r="F50" s="14">
-        <v>1</v>
-      </c>
-      <c r="G50" s="15">
-        <v>19</v>
-      </c>
-      <c r="H50" s="14">
-        <v>2</v>
-      </c>
-      <c r="I50" s="15">
-        <v>18</v>
-      </c>
-      <c r="J50" s="14">
-        <v>2</v>
-      </c>
-      <c r="K50" s="15">
-        <v>18</v>
-      </c>
-      <c r="L50" s="14">
-        <v>1</v>
-      </c>
-      <c r="M50" s="15">
-        <v>19</v>
-      </c>
-      <c r="N50" s="14">
-        <v>1</v>
-      </c>
-      <c r="O50" s="15">
-        <v>19</v>
-      </c>
-      <c r="P50" s="14">
+      <c r="D50" s="10">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11">
+        <v>17</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11">
+        <v>19</v>
+      </c>
+      <c r="H50" s="10">
+        <v>2</v>
+      </c>
+      <c r="I50" s="11">
+        <v>18</v>
+      </c>
+      <c r="J50" s="10">
+        <v>2</v>
+      </c>
+      <c r="K50" s="11">
+        <v>18</v>
+      </c>
+      <c r="L50" s="10">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11">
+        <v>19</v>
+      </c>
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
+      <c r="O50" s="11">
+        <v>19</v>
+      </c>
+      <c r="P50" s="10">
         <v>4</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="10">
         <v>5</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="11">
         <v>15</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="10">
         <v>4</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="11">
         <v>16</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="10">
         <v>5</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="11">
         <v>15</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="10">
         <v>6</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="11">
         <v>14</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="10">
         <v>4</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="11">
         <v>16</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="10">
         <v>6</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="11">
         <v>14</v>
       </c>
-      <c r="N51" s="14">
+      <c r="N51" s="10">
         <v>5</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="11">
         <v>15</v>
       </c>
-      <c r="P51" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q51" s="15">
+      <c r="P51" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="11">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="24">
-        <v>1</v>
-      </c>
-      <c r="C52" s="25">
-        <v>19</v>
-      </c>
-      <c r="D52" s="24">
+      <c r="B52" s="20">
+        <v>1</v>
+      </c>
+      <c r="C52" s="21">
+        <v>19</v>
+      </c>
+      <c r="D52" s="20">
         <v>0</v>
       </c>
-      <c r="E52" s="25">
-        <v>20</v>
-      </c>
-      <c r="F52" s="24">
+      <c r="E52" s="21">
+        <v>20</v>
+      </c>
+      <c r="F52" s="20">
         <v>0</v>
       </c>
-      <c r="G52" s="25">
-        <v>20</v>
-      </c>
-      <c r="H52" s="24">
-        <v>2</v>
-      </c>
-      <c r="I52" s="25">
-        <v>18</v>
-      </c>
-      <c r="J52" s="24">
+      <c r="G52" s="21">
+        <v>20</v>
+      </c>
+      <c r="H52" s="20">
+        <v>2</v>
+      </c>
+      <c r="I52" s="21">
+        <v>18</v>
+      </c>
+      <c r="J52" s="20">
         <v>0</v>
       </c>
-      <c r="K52" s="25">
-        <v>20</v>
-      </c>
-      <c r="L52" s="24">
+      <c r="K52" s="21">
+        <v>20</v>
+      </c>
+      <c r="L52" s="20">
         <v>0</v>
       </c>
-      <c r="M52" s="25">
-        <v>20</v>
-      </c>
-      <c r="N52" s="24">
+      <c r="M52" s="21">
+        <v>20</v>
+      </c>
+      <c r="N52" s="20">
         <v>0</v>
       </c>
-      <c r="O52" s="25">
-        <v>20</v>
-      </c>
-      <c r="P52" s="24">
+      <c r="O52" s="21">
+        <v>20</v>
+      </c>
+      <c r="P52" s="20">
         <v>0</v>
       </c>
-      <c r="Q52" s="25">
+      <c r="Q52" s="21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
@@ -9694,13 +9700,10 @@
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="U3:W3 X3:X4 U4:W4 Y3:Y4 Z3:Z4 AA3:AA4 AB3:AB4 AC3:AC4 AD3:AD4 AE3:AE4 AF3:AF4 AG3:AG4 AH3:AH4 AI3:AI4 AJ3:AJ4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>